--- a/hw/hw1/USA.xlsx
+++ b/hw/hw1/USA.xlsx
@@ -2847,8 +2847,8 @@
   <sheetPr codeName="Sheet177"/>
   <dimension ref="A1:AQ222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="S223" sqref="A223:XFD223"/>
+    <sheetView tabSelected="1" topLeftCell="K98" workbookViewId="0">
+      <selection activeCell="Z225" sqref="Z225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
